--- a/pred_ohlcv/54_21/2019-10-17 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 ZRX ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-17534.28850565582</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1493.912694344176</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>17113.44909434418</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>15282.11829434418</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1438.62730565582</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-29525.30070565582</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-29525.30070565582</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-55824.35630565582</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-52774.35650565582</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-47354.06020565582</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-50140.37310565582</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-46019.09480565582</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-31503.69480565582</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-31755.58580565582</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-31755.58580565582</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-31924.42810565582</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-35021.82640565582</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-34438.99910565581</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-34558.92920565581</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-34029.92920565581</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-52326.79376091187</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-57578.01756091187</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-56455.30006091187</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-57255.30006091187</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-57255.30006091187</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-58201.95696091187</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-57768.22216091187</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-8521.320560911874</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-22729.64186091187</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-22364.64186091187</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-22364.64186091187</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-67362.66326091187</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-64923.47936091186</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-64923.47936091186</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-64866.12496091185</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-53500.25946091186</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-51767.36956091186</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-52204.23076091186</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-51969.12416091186</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-46769.55676091186</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-46769.55676091186</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-35928.43306091186</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-25341.79553150009</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-25936.1706315001</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-32855.2888315001</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-32855.2888315001</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-32860.3996315001</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-30004.0300315001</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-29951.6673315001</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-30443.6673315001</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-30952.8546315001</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-33318.7133315001</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-32823.7133315001</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-33622.9298315001</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-33510.5515315001</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-34102.40883150011</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-34076.83093150011</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-30615.55083150011</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-30642.09793150011</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-34175.94373150011</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-31387.82393150011</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-31387.82393150011</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-31387.82393150011</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-26015.51984601624</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-26015.51984601624</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-25975.21994601624</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-25469.04744601624</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-25469.04744601624</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>34800.83020234218</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>32852.70110234218</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>27385.21218984218</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>27385.21218984218</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>45321.17777734218</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>43025.71057734218</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>32694.71057734218</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>33652.71567734217</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>33652.71567734217</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>35022.09807734218</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>35652.84067734217</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>32683.90027734217</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>29563.47437734217</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>30105.77327734217</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>30105.77327734217</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>28672.80347734218</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>28491.65787734218</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>28491.65787734218</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>28791.65787734218</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>31068.11097734217</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>13592.55207734217</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-10417.75172265783</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-10417.75172265783</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 ZRX ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-43342.15270565582</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-43961.66730565582</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-44392.38070565582</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-17534.28850565582</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-11233.34760565582</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-538.9717056558238</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1493.912694344176</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>17113.44909434418</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>15282.11829434418</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1438.62730565582</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-9699.47920565582</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-29525.30070565582</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-29525.30070565582</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-55824.35630565582</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-52774.35650565582</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-47354.06020565582</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-50140.37310565582</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-46891.67630565582</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-46019.09480565582</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-31503.69480565582</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-31755.58580565582</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-31755.58580565582</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-31924.42810565582</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-35021.82640565582</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-34602.89910565582</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-34438.99910565581</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-34558.92920565581</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-34029.92920565581</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-50338.49216091187</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-51495.42046091187</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-52326.79376091187</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-52326.79376091187</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-57578.01756091187</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-56455.30006091187</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-57255.30006091187</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-57255.30006091187</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-58201.95696091187</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-57768.22216091187</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-8521.320560911874</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-8647.320560911874</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-23822.97346091188</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-22364.64186091187</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-67362.66326091187</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-66019.29046091186</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-66019.29046091186</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-65390.87516091186</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-64923.47936091186</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-64923.47936091186</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-64979.34556091185</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-64866.12496091185</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-64923.51376091185</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-70362.04356091186</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-53763.06236091186</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-53500.25946091186</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-51767.36956091186</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-52204.23076091186</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-52204.23076091186</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-51969.12416091186</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-46769.55676091186</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-46769.55676091186</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-44074.13906091186</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-44074.13906091186</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-35928.43306091186</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-30366.0896315001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-30929.7607315001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-27098.8919315001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-24621.0253315001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-25262.3116315001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-25262.3116315001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-25341.79553150009</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-25936.1706315001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-32855.2888315001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-32855.2888315001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-32860.3996315001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-30004.0300315001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-29951.6673315001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-30443.6673315001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-30952.8546315001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-33318.7133315001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-32823.7133315001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33714.2498315001</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-33622.9298315001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-33510.5515315001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-34102.40883150011</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-34076.83093150011</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-30615.55083150011</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-30642.09793150011</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-34175.94373150011</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-31387.82393150011</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-31387.82393150011</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-26015.51984601624</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-26099.90114601624</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-25975.21994601624</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-25469.04744601624</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>11470.20842845184</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>36537.42960234218</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>36387.42960234218</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>36416.77030234218</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>36416.77030234218</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>34800.83020234218</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>32852.70110234218</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>34870.70110234218</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>35050.80750234218</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>27385.21218984218</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>27385.21218984218</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>27218.38108984218</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>30856.99387734217</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>34609.99907734217</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>45321.17777734218</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>43025.71057734218</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>32694.71057734218</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>33099.66057734218</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>33652.71567734217</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>33652.71567734217</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>35022.09807734218</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>35652.84067734217</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>33368.82167734217</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>32683.90027734217</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>29563.47437734217</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>30105.77327734217</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>30105.77327734217</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>28672.80347734218</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>28491.65787734218</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>28491.65787734218</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>28791.65787734218</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>31068.11097734217</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>13592.55207734217</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>545.5602773421742</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
